--- a/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.01873347535729408</v>
+        <v>0.02004759199917316</v>
       </c>
       <c r="C2">
-        <v>-0.01252809632569551</v>
+        <v>-0.003901372198015451</v>
       </c>
       <c r="D2">
-        <v>0.009821566753089428</v>
+        <v>-0.001542750978842378</v>
       </c>
       <c r="E2">
-        <v>0.1272968351840973</v>
+        <v>0.1269687414169312</v>
       </c>
       <c r="F2">
-        <v>0.02726372331380844</v>
+        <v>0.02482560276985168</v>
       </c>
       <c r="G2">
-        <v>0.008342809975147247</v>
+        <v>0.01017793640494347</v>
       </c>
       <c r="H2">
-        <v>-0.02267719618976116</v>
+        <v>-0.02394672110676765</v>
       </c>
       <c r="I2">
-        <v>-0.001144132576882839</v>
+        <v>-0.0009338413365185261</v>
       </c>
       <c r="J2">
-        <v>-0.1023857966065407</v>
+        <v>-0.09627268463373184</v>
       </c>
       <c r="K2">
-        <v>-0.01162307523190975</v>
+        <v>-0.01543124578893185</v>
       </c>
       <c r="L2">
-        <v>0.02758552320301533</v>
+        <v>0.02905523963272572</v>
       </c>
       <c r="M2">
-        <v>-0.002976571908220649</v>
+        <v>-0.01396400388330221</v>
       </c>
       <c r="N2">
-        <v>0.003209549468010664</v>
+        <v>-0.004853987134993076</v>
       </c>
       <c r="O2">
-        <v>0.2387455403804779</v>
+        <v>0.2412175536155701</v>
       </c>
       <c r="P2">
-        <v>0.1059876382350922</v>
+        <v>0.1009760126471519</v>
       </c>
       <c r="Q2">
-        <v>-0.1263973861932755</v>
+        <v>-0.12395279109478</v>
       </c>
       <c r="R2">
-        <v>-0.01390198525041342</v>
+        <v>-0.01156408153474331</v>
       </c>
       <c r="S2">
-        <v>0.03574520349502563</v>
+        <v>0.04698032513260841</v>
       </c>
       <c r="T2">
-        <v>-0.06258168071508408</v>
+        <v>-0.06276517361402512</v>
       </c>
       <c r="U2">
-        <v>-0.06147538498044014</v>
+        <v>-0.06510583311319351</v>
       </c>
       <c r="V2">
-        <v>0.02321073785424232</v>
+        <v>0.02997903898358345</v>
       </c>
       <c r="W2">
-        <v>-0.1608876138925552</v>
+        <v>-0.1498688012361526</v>
       </c>
       <c r="X2">
-        <v>-0.0004450593260116875</v>
+        <v>-0.009239489212632179</v>
       </c>
       <c r="Y2">
-        <v>0.1350544840097427</v>
+        <v>0.1368425786495209</v>
       </c>
       <c r="Z2">
-        <v>-0.1250034868717194</v>
+        <v>-0.1205646172165871</v>
       </c>
       <c r="AA2">
-        <v>0.03000143729150295</v>
+        <v>0.0306544192135334</v>
       </c>
       <c r="AB2">
-        <v>-0.03936802968382835</v>
+        <v>-0.04406125843524933</v>
       </c>
       <c r="AC2">
-        <v>-0.04447880387306213</v>
+        <v>-0.03728342056274414</v>
       </c>
       <c r="AD2">
-        <v>-0.03491847217082977</v>
+        <v>-0.0364733412861824</v>
       </c>
       <c r="AE2">
-        <v>0.07973397523164749</v>
+        <v>0.07506050914525986</v>
       </c>
       <c r="AF2">
-        <v>0.01994779147207737</v>
+        <v>0.01650786958634853</v>
       </c>
       <c r="AG2">
-        <v>0.1469249129295349</v>
+        <v>0.1525468677282333</v>
       </c>
       <c r="AH2">
-        <v>0.1669222563505173</v>
+        <v>0.1577654331922531</v>
       </c>
       <c r="AI2">
-        <v>0.1027654483914375</v>
+        <v>0.09848706424236298</v>
       </c>
       <c r="AJ2">
-        <v>-0.003690274432301521</v>
+        <v>0.002106742467731237</v>
       </c>
       <c r="AK2">
-        <v>-0.05307818204164505</v>
+        <v>-0.05499531328678131</v>
       </c>
       <c r="AL2">
-        <v>-0.01545290090143681</v>
+        <v>-0.01035519689321518</v>
       </c>
       <c r="AM2">
-        <v>-0.07611999660730362</v>
+        <v>-0.08918562531471252</v>
       </c>
       <c r="AN2">
-        <v>0.1520121395587921</v>
+        <v>0.1539944857358932</v>
       </c>
       <c r="AO2">
-        <v>0.07283388823270798</v>
+        <v>0.07752460986375809</v>
       </c>
       <c r="AP2">
-        <v>-0.03205061703920364</v>
+        <v>-0.02981661073863506</v>
       </c>
       <c r="AQ2">
-        <v>-0.01144505757838488</v>
+        <v>-0.01444756705313921</v>
       </c>
       <c r="AR2">
-        <v>-0.03824092075228691</v>
+        <v>-0.03153719007968903</v>
       </c>
       <c r="AS2">
-        <v>0.04230279847979546</v>
+        <v>0.04202886298298836</v>
       </c>
       <c r="AT2">
-        <v>0.08365686982870102</v>
+        <v>0.06623496115207672</v>
       </c>
       <c r="AU2">
-        <v>0.0668986514210701</v>
+        <v>0.06785430014133453</v>
       </c>
       <c r="AV2">
-        <v>-0.0511370413005352</v>
+        <v>-0.04847321659326553</v>
       </c>
       <c r="AW2">
-        <v>-0.04724857956171036</v>
+        <v>-0.0475192628800869</v>
       </c>
       <c r="AX2">
-        <v>0.01635688915848732</v>
+        <v>0.0153903542086482</v>
       </c>
       <c r="AY2">
-        <v>-0.0771745964884758</v>
+        <v>-0.07099213451147079</v>
       </c>
       <c r="AZ2">
-        <v>-0.01633729040622711</v>
+        <v>-0.02628323063254356</v>
       </c>
       <c r="BA2">
-        <v>0.04281912371516228</v>
+        <v>0.0375702977180481</v>
       </c>
       <c r="BB2">
-        <v>-0.05423504114151001</v>
+        <v>-0.05950873717665672</v>
       </c>
       <c r="BC2">
-        <v>-0.010321537964046</v>
+        <v>-0.01659760996699333</v>
       </c>
       <c r="BD2">
-        <v>0.06576979905366898</v>
+        <v>0.06430528312921524</v>
       </c>
       <c r="BE2">
-        <v>-0.004131081514060497</v>
+        <v>0.002722775330767035</v>
       </c>
       <c r="BF2">
-        <v>0.03509904071688652</v>
+        <v>0.03241775929927826</v>
       </c>
       <c r="BG2">
-        <v>-0.0918768048286438</v>
+        <v>-0.09447401762008667</v>
       </c>
       <c r="BH2">
-        <v>0.01043985970318317</v>
+        <v>-0.003310337429866195</v>
       </c>
       <c r="BI2">
-        <v>0.0581989698112011</v>
+        <v>0.0588984452188015</v>
       </c>
       <c r="BJ2">
-        <v>-0.1383058428764343</v>
+        <v>-0.1430815607309341</v>
       </c>
       <c r="BK2">
-        <v>-0.01859847269952297</v>
+        <v>-0.01474822219461203</v>
       </c>
       <c r="BL2">
-        <v>-0.1210922598838806</v>
+        <v>-0.1183281540870667</v>
       </c>
       <c r="BM2">
-        <v>-0.04495915770530701</v>
+        <v>-0.05130816623568535</v>
       </c>
       <c r="BN2">
-        <v>-0.04764360561966896</v>
+        <v>-0.06102452054619789</v>
       </c>
       <c r="BO2">
-        <v>0.1692169010639191</v>
+        <v>0.1800814419984818</v>
       </c>
       <c r="BP2">
-        <v>-0.1137791499495506</v>
+        <v>-0.112827442586422</v>
       </c>
       <c r="BQ2">
-        <v>0.003094319719821215</v>
+        <v>0.004216834902763367</v>
       </c>
       <c r="BR2">
-        <v>-0.02468140982091427</v>
+        <v>-0.02867926843464375</v>
       </c>
       <c r="BS2">
-        <v>0.03426749259233475</v>
+        <v>0.02651967667043209</v>
       </c>
       <c r="BT2">
-        <v>0.03803608566522598</v>
+        <v>0.03868989273905754</v>
       </c>
       <c r="BU2">
-        <v>0.02639531902968884</v>
+        <v>0.02632332034409046</v>
       </c>
       <c r="BV2">
-        <v>-0.04455558583140373</v>
+        <v>-0.04257836565375328</v>
       </c>
       <c r="BW2">
-        <v>-0.01935092732310295</v>
+        <v>-0.01620320789515972</v>
       </c>
       <c r="BX2">
-        <v>-0.001939677866175771</v>
+        <v>0.003361874725669622</v>
       </c>
       <c r="BY2">
-        <v>-0.008726165629923344</v>
+        <v>-0.005506326444447041</v>
       </c>
       <c r="BZ2">
-        <v>-0.009885228238999844</v>
+        <v>-0.006406252738088369</v>
       </c>
       <c r="CA2">
-        <v>0.01912037283182144</v>
+        <v>0.01438426785171032</v>
       </c>
       <c r="CB2">
-        <v>-0.02256559394299984</v>
+        <v>-0.02084597945213318</v>
       </c>
       <c r="CC2">
-        <v>0.01940423063933849</v>
+        <v>0.0182544719427824</v>
       </c>
       <c r="CD2">
-        <v>-0.008466578088700771</v>
+        <v>-0.007289410568773746</v>
       </c>
       <c r="CE2">
-        <v>0.004107119515538216</v>
+        <v>0.01163836289197206</v>
       </c>
       <c r="CF2">
-        <v>0.1173440143465996</v>
+        <v>0.1102971509099007</v>
       </c>
       <c r="CG2">
-        <v>0.1446407586336136</v>
+        <v>0.1476868242025375</v>
       </c>
       <c r="CH2">
-        <v>-0.02005011029541492</v>
+        <v>-0.01844449527561665</v>
       </c>
       <c r="CI2">
-        <v>-0.06578569859266281</v>
+        <v>-0.06800082325935364</v>
       </c>
       <c r="CJ2">
-        <v>0.3833108246326447</v>
+        <v>0.3760241568088531</v>
       </c>
       <c r="CK2">
-        <v>-0.00224938802421093</v>
+        <v>-0.003621376119554043</v>
       </c>
       <c r="CL2">
-        <v>-0.01030819490551949</v>
+        <v>-0.01139691192656755</v>
       </c>
       <c r="CM2">
-        <v>-0.003228585701435804</v>
+        <v>0.006206590682268143</v>
       </c>
       <c r="CN2">
-        <v>-0.02886921539902687</v>
+        <v>-0.01715625263750553</v>
       </c>
       <c r="CO2">
-        <v>-0.009393968619406223</v>
+        <v>-0.009426997043192387</v>
       </c>
       <c r="CP2">
-        <v>-0.1069396659731865</v>
+        <v>-0.1008508801460266</v>
       </c>
       <c r="CQ2">
-        <v>-0.03011742979288101</v>
+        <v>-0.02814535424113274</v>
       </c>
       <c r="CR2">
-        <v>-0.05480902642011642</v>
+        <v>-0.0551292710006237</v>
       </c>
       <c r="CS2">
-        <v>-0.01091374363750219</v>
+        <v>-0.0124718202278018</v>
       </c>
       <c r="CT2">
-        <v>-0.01021904684603214</v>
+        <v>-0.0109953423961997</v>
       </c>
       <c r="CU2">
-        <v>0.007463998161256313</v>
+        <v>0.01737708039581776</v>
       </c>
       <c r="CV2">
-        <v>0.01686284318566322</v>
+        <v>0.02176054567098618</v>
       </c>
       <c r="CW2">
-        <v>-0.1022971794009209</v>
+        <v>-0.09659124165773392</v>
       </c>
       <c r="CX2">
-        <v>-0.03511692956089973</v>
+        <v>-0.02573991939425468</v>
       </c>
       <c r="CY2">
-        <v>-0.01874729245901108</v>
+        <v>-0.02105390653014183</v>
       </c>
       <c r="CZ2">
-        <v>-0.003582078265026212</v>
+        <v>0.0006912504904903471</v>
       </c>
       <c r="DA2">
-        <v>-0.1738543063402176</v>
+        <v>-0.1602348238229752</v>
       </c>
       <c r="DB2">
-        <v>-0.1122586578130722</v>
+        <v>-0.1262943893671036</v>
       </c>
       <c r="DC2">
-        <v>0.02416857331991196</v>
+        <v>0.02599834464490414</v>
       </c>
       <c r="DD2">
-        <v>0.2778344750404358</v>
+        <v>0.2729082405567169</v>
       </c>
       <c r="DE2">
-        <v>-0.003239982994273305</v>
+        <v>-0.004247827921062708</v>
       </c>
       <c r="DF2">
-        <v>-0.08072322607040405</v>
+        <v>-0.07824156433343887</v>
       </c>
       <c r="DG2">
-        <v>0.03253527730703354</v>
+        <v>0.03564310818910599</v>
       </c>
       <c r="DH2">
-        <v>-0.08375392109155655</v>
+        <v>-0.07992856204509735</v>
       </c>
       <c r="DI2">
-        <v>-0.0128897288814187</v>
+        <v>-0.01266702264547348</v>
       </c>
       <c r="DJ2">
-        <v>0.134511262178421</v>
+        <v>0.123319998383522</v>
       </c>
       <c r="DK2">
-        <v>-0.03287183493375778</v>
+        <v>-0.03221546113491058</v>
       </c>
       <c r="DL2">
-        <v>-0.1824623048305511</v>
+        <v>-0.176973819732666</v>
       </c>
       <c r="DM2">
-        <v>-0.02597524598240852</v>
+        <v>-0.03101640753448009</v>
       </c>
       <c r="DN2">
-        <v>0.1899924576282501</v>
+        <v>0.1877222955226898</v>
       </c>
       <c r="DO2">
-        <v>-0.002759862225502729</v>
+        <v>-0.01641359180212021</v>
       </c>
       <c r="DP2">
-        <v>-0.04996692389249802</v>
+        <v>-0.05030107498168945</v>
       </c>
       <c r="DQ2">
-        <v>-0.02062945812940598</v>
+        <v>-0.0209274236112833</v>
       </c>
       <c r="DR2">
-        <v>0.003178141312673688</v>
+        <v>0.002266466850414872</v>
       </c>
       <c r="DS2">
-        <v>0.09246104210615158</v>
+        <v>0.1004961058497429</v>
       </c>
       <c r="DT2">
-        <v>0.1059998944401741</v>
+        <v>0.09511758387088776</v>
       </c>
       <c r="DU2">
-        <v>-0.104595735669136</v>
+        <v>-0.1061521023511887</v>
       </c>
       <c r="DV2">
-        <v>-0.003684327472001314</v>
+        <v>-0.00226047239266336</v>
       </c>
       <c r="DW2">
-        <v>-0.006404361687600613</v>
+        <v>-0.01428111270070076</v>
       </c>
       <c r="DX2">
-        <v>-0.1254062503576279</v>
+        <v>-0.1272217482328415</v>
       </c>
       <c r="DY2">
-        <v>0.330918550491333</v>
+        <v>0.3233536779880524</v>
       </c>
       <c r="DZ2">
-        <v>0.005319323856383562</v>
+        <v>0.006756933405995369</v>
       </c>
       <c r="EA2">
-        <v>0.03005241230130196</v>
+        <v>0.03838000819087029</v>
       </c>
       <c r="EB2">
-        <v>0.09130823612213135</v>
+        <v>0.08988010138273239</v>
       </c>
       <c r="EC2">
-        <v>-0.01282909512519836</v>
+        <v>-0.006909485906362534</v>
       </c>
       <c r="ED2">
-        <v>-0.1280900686979294</v>
+        <v>-0.1283568143844604</v>
       </c>
       <c r="EE2">
-        <v>0.03070774674415588</v>
+        <v>0.02799923904240131</v>
       </c>
       <c r="EF2">
-        <v>0.02306534349918365</v>
+        <v>0.02172378823161125</v>
       </c>
       <c r="EG2">
-        <v>-0.1025423556566238</v>
+        <v>-0.1141573339700699</v>
       </c>
       <c r="EH2">
-        <v>0.1044427156448364</v>
+        <v>0.1002151817083359</v>
       </c>
       <c r="EI2">
-        <v>0.07125760614871979</v>
+        <v>0.07350267469882965</v>
       </c>
       <c r="EJ2">
-        <v>-0.02842219918966293</v>
+        <v>-0.02199174650013447</v>
       </c>
       <c r="EK2">
-        <v>-0.02187101729214191</v>
+        <v>-0.02337986417114735</v>
       </c>
       <c r="EL2">
-        <v>-0.01714244298636913</v>
+        <v>-0.01841587573289871</v>
       </c>
       <c r="EM2">
-        <v>0.1058734133839607</v>
+        <v>0.1072258278727531</v>
       </c>
       <c r="EN2">
-        <v>-0.1057656928896904</v>
+        <v>-0.1066589206457138</v>
       </c>
       <c r="EO2">
-        <v>-0.01764658279716969</v>
+        <v>-0.01354567240923643</v>
       </c>
       <c r="EP2">
-        <v>-0.02754143439233303</v>
+        <v>-0.02685264125466347</v>
       </c>
       <c r="EQ2">
-        <v>-0.1407607793807983</v>
+        <v>-0.1432098299264908</v>
       </c>
       <c r="ER2">
-        <v>-0.03377470374107361</v>
+        <v>-0.02967892959713936</v>
       </c>
       <c r="ES2">
-        <v>0.1467014402151108</v>
+        <v>0.1486743837594986</v>
       </c>
       <c r="ET2">
-        <v>0.05236054956912994</v>
+        <v>0.04832018539309502</v>
       </c>
       <c r="EU2">
-        <v>-0.05106706172227859</v>
+        <v>-0.06638992577791214</v>
       </c>
       <c r="EV2">
-        <v>-0.09619808197021484</v>
+        <v>-0.1063359156250954</v>
       </c>
       <c r="EW2">
-        <v>0.01821519806981087</v>
+        <v>0.003789354348555207</v>
       </c>
       <c r="EX2">
-        <v>0.08481752127408981</v>
+        <v>0.09753251820802689</v>
       </c>
       <c r="EY2">
-        <v>-0.004147619940340519</v>
+        <v>-0.005944377277046442</v>
       </c>
       <c r="EZ2">
-        <v>0.09091517329216003</v>
+        <v>0.07294812053442001</v>
       </c>
       <c r="FA2">
-        <v>0.006467132363468409</v>
+        <v>-0.003165601054206491</v>
       </c>
       <c r="FB2">
-        <v>-0.006770716048777103</v>
+        <v>-0.008809705264866352</v>
       </c>
       <c r="FC2">
-        <v>0.004031762480735779</v>
+        <v>0.01007563341408968</v>
       </c>
       <c r="FD2">
-        <v>0.01681987382471561</v>
+        <v>0.02050072140991688</v>
       </c>
       <c r="FE2">
-        <v>-0.07110293954610825</v>
+        <v>-0.06895474344491959</v>
       </c>
       <c r="FF2">
-        <v>0.1747714132070541</v>
+        <v>0.1787109822034836</v>
       </c>
       <c r="FG2">
-        <v>-0.0593542568385601</v>
+        <v>-0.05533787980675697</v>
       </c>
       <c r="FH2">
-        <v>0.02983922511339188</v>
+        <v>0.01932361163198948</v>
       </c>
       <c r="FI2">
-        <v>-0.1138826832175255</v>
+        <v>-0.127367228269577</v>
       </c>
       <c r="FJ2">
-        <v>0.1028695404529572</v>
+        <v>0.1006002500653267</v>
       </c>
       <c r="FK2">
-        <v>-0.1547033041715622</v>
+        <v>-0.1500318944454193</v>
       </c>
       <c r="FL2">
-        <v>-0.2157147377729416</v>
+        <v>-0.2182121276855469</v>
       </c>
       <c r="FM2">
-        <v>0.163270428776741</v>
+        <v>0.161963939666748</v>
       </c>
       <c r="FN2">
-        <v>-0.03761199489235878</v>
+        <v>-0.03345395252108574</v>
       </c>
       <c r="FO2">
-        <v>-0.004240541718900204</v>
+        <v>-0.005108422599732876</v>
       </c>
       <c r="FP2">
-        <v>-0.008532117120921612</v>
+        <v>0.006062919273972511</v>
       </c>
       <c r="FQ2">
-        <v>-0.00289023038931191</v>
+        <v>-0.003698718966916203</v>
       </c>
       <c r="FR2">
-        <v>-0.01227719616144896</v>
+        <v>-0.01256139948964119</v>
       </c>
       <c r="FS2">
-        <v>0.004116143099963665</v>
+        <v>0.003254434792324901</v>
       </c>
       <c r="FT2">
-        <v>-0.01348649710416794</v>
+        <v>-0.01456983108073473</v>
       </c>
       <c r="FU2">
-        <v>-0.1366401165723801</v>
+        <v>-0.1363766640424728</v>
       </c>
       <c r="FV2">
-        <v>-0.04827727377414703</v>
+        <v>-0.04646260663866997</v>
       </c>
       <c r="FW2">
-        <v>-0.07381279766559601</v>
+        <v>-0.07309835404157639</v>
       </c>
       <c r="FX2">
-        <v>-0.03548647835850716</v>
+        <v>-0.03748201206326485</v>
       </c>
       <c r="FY2">
-        <v>-0.01128188148140907</v>
+        <v>-0.02441221661865711</v>
       </c>
       <c r="FZ2">
-        <v>-0.001521195168606937</v>
+        <v>-0.006501320749521255</v>
       </c>
       <c r="GA2">
-        <v>0.1586494296789169</v>
+        <v>0.1649480611085892</v>
       </c>
       <c r="GB2">
-        <v>-0.01163844205439091</v>
+        <v>-0.008994042873382568</v>
       </c>
       <c r="GC2">
-        <v>0.1535884439945221</v>
+        <v>0.1527242958545685</v>
       </c>
       <c r="GD2">
-        <v>0.06346036493778229</v>
+        <v>0.06462898850440979</v>
       </c>
       <c r="GE2">
-        <v>0.04250548779964447</v>
+        <v>0.0411110557615757</v>
       </c>
       <c r="GF2">
-        <v>-0.003532064845785499</v>
+        <v>-0.004398702643811703</v>
       </c>
       <c r="GG2">
-        <v>0.06025521829724312</v>
+        <v>0.05445053055882454</v>
       </c>
       <c r="GH2">
-        <v>0.004862025380134583</v>
+        <v>0.005591258406639099</v>
       </c>
       <c r="GI2">
-        <v>-0.01200111582875252</v>
+        <v>-0.01092952396720648</v>
       </c>
       <c r="GJ2">
-        <v>-0.02063393592834473</v>
+        <v>-0.007249013055115938</v>
       </c>
       <c r="GK2">
-        <v>-0.1650868952274323</v>
+        <v>-0.1616190671920776</v>
       </c>
       <c r="GL2">
-        <v>0.06936805695295334</v>
+        <v>0.0709497332572937</v>
       </c>
       <c r="GM2">
-        <v>0.05473415181040764</v>
+        <v>0.06336452066898346</v>
       </c>
       <c r="GN2">
-        <v>0.001613790402188897</v>
+        <v>-0.003488117596134543</v>
       </c>
       <c r="GO2">
-        <v>-0.09932336956262589</v>
+        <v>-0.1097490265965462</v>
       </c>
       <c r="GP2">
-        <v>0.04213701188564301</v>
+        <v>0.04084952548146248</v>
       </c>
       <c r="GQ2">
-        <v>-0.002448285929858685</v>
+        <v>-0.009791647084057331</v>
       </c>
       <c r="GR2">
-        <v>-0.008721228688955307</v>
+        <v>0.004556747619062662</v>
       </c>
       <c r="GS2">
-        <v>-0.08146483451128006</v>
+        <v>-0.08532604575157166</v>
       </c>
       <c r="GT2">
-        <v>0.01757419295608997</v>
+        <v>0.01223622355610132</v>
       </c>
       <c r="GU2">
-        <v>0.003956871572881937</v>
+        <v>0.003651347942650318</v>
       </c>
       <c r="GV2">
-        <v>-0.03034615144133568</v>
+        <v>-0.02738334983587265</v>
       </c>
       <c r="GW2">
-        <v>0.190016970038414</v>
+        <v>0.1953402161598206</v>
       </c>
       <c r="GX2">
-        <v>-0.01185356266796589</v>
+        <v>-0.01070254761725664</v>
       </c>
       <c r="GY2">
-        <v>0.022788155823946</v>
+        <v>0.02096210233867168</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02004759199917316</v>
+        <v>0.02162829786539078</v>
       </c>
       <c r="C2">
-        <v>-0.003901372198015451</v>
+        <v>-0.01732466742396355</v>
       </c>
       <c r="D2">
-        <v>-0.001542750978842378</v>
+        <v>-0.006345061585307121</v>
       </c>
       <c r="E2">
-        <v>0.1269687414169312</v>
+        <v>0.1310967057943344</v>
       </c>
       <c r="F2">
-        <v>0.02482560276985168</v>
+        <v>0.02949902601540089</v>
       </c>
       <c r="G2">
-        <v>0.01017793640494347</v>
+        <v>0.008838498033583164</v>
       </c>
       <c r="H2">
-        <v>-0.02394672110676765</v>
+        <v>-0.01422543544322252</v>
       </c>
       <c r="I2">
-        <v>-0.0009338413365185261</v>
+        <v>-0.001273694331757724</v>
       </c>
       <c r="J2">
-        <v>-0.09627268463373184</v>
+        <v>-0.09747873991727829</v>
       </c>
       <c r="K2">
-        <v>-0.01543124578893185</v>
+        <v>-0.006405348889529705</v>
       </c>
       <c r="L2">
-        <v>0.02905523963272572</v>
+        <v>0.0173986405134201</v>
       </c>
       <c r="M2">
-        <v>-0.01396400388330221</v>
+        <v>-0.01720818690955639</v>
       </c>
       <c r="N2">
-        <v>-0.004853987134993076</v>
+        <v>0.004221344366669655</v>
       </c>
       <c r="O2">
-        <v>0.2412175536155701</v>
+        <v>0.2402769029140472</v>
       </c>
       <c r="P2">
-        <v>0.1009760126471519</v>
+        <v>0.0939028337597847</v>
       </c>
       <c r="Q2">
-        <v>-0.12395279109478</v>
+        <v>-0.1124086827039719</v>
       </c>
       <c r="R2">
-        <v>-0.01156408153474331</v>
+        <v>-0.01750402897596359</v>
       </c>
       <c r="S2">
-        <v>0.04698032513260841</v>
+        <v>0.0398121178150177</v>
       </c>
       <c r="T2">
-        <v>-0.06276517361402512</v>
+        <v>-0.06379418820142746</v>
       </c>
       <c r="U2">
-        <v>-0.06510583311319351</v>
+        <v>-0.06829772144556046</v>
       </c>
       <c r="V2">
-        <v>0.02997903898358345</v>
+        <v>0.02357769012451172</v>
       </c>
       <c r="W2">
-        <v>-0.1498688012361526</v>
+        <v>-0.1520096361637115</v>
       </c>
       <c r="X2">
-        <v>-0.009239489212632179</v>
+        <v>0.006690036505460739</v>
       </c>
       <c r="Y2">
-        <v>0.1368425786495209</v>
+        <v>0.1244211420416832</v>
       </c>
       <c r="Z2">
-        <v>-0.1205646172165871</v>
+        <v>-0.106546625494957</v>
       </c>
       <c r="AA2">
-        <v>0.0306544192135334</v>
+        <v>0.02517023496329784</v>
       </c>
       <c r="AB2">
-        <v>-0.04406125843524933</v>
+        <v>-0.03183563053607941</v>
       </c>
       <c r="AC2">
-        <v>-0.03728342056274414</v>
+        <v>-0.04056516662240028</v>
       </c>
       <c r="AD2">
-        <v>-0.0364733412861824</v>
+        <v>-0.03716313093900681</v>
       </c>
       <c r="AE2">
-        <v>0.07506050914525986</v>
+        <v>0.07287151366472244</v>
       </c>
       <c r="AF2">
-        <v>0.01650786958634853</v>
+        <v>0.02235970832407475</v>
       </c>
       <c r="AG2">
-        <v>0.1525468677282333</v>
+        <v>0.1452574133872986</v>
       </c>
       <c r="AH2">
-        <v>0.1577654331922531</v>
+        <v>0.1774113178253174</v>
       </c>
       <c r="AI2">
-        <v>0.09848706424236298</v>
+        <v>0.08266628533601761</v>
       </c>
       <c r="AJ2">
-        <v>0.002106742467731237</v>
+        <v>-0.001298419665545225</v>
       </c>
       <c r="AK2">
-        <v>-0.05499531328678131</v>
+        <v>-0.05984168499708176</v>
       </c>
       <c r="AL2">
-        <v>-0.01035519689321518</v>
+        <v>-0.02096273005008698</v>
       </c>
       <c r="AM2">
-        <v>-0.08918562531471252</v>
+        <v>-0.07645679265260696</v>
       </c>
       <c r="AN2">
-        <v>0.1539944857358932</v>
+        <v>0.1523002684116364</v>
       </c>
       <c r="AO2">
-        <v>0.07752460986375809</v>
+        <v>0.08790489286184311</v>
       </c>
       <c r="AP2">
-        <v>-0.02981661073863506</v>
+        <v>-0.02830489352345467</v>
       </c>
       <c r="AQ2">
-        <v>-0.01444756705313921</v>
+        <v>-0.0127417566254735</v>
       </c>
       <c r="AR2">
-        <v>-0.03153719007968903</v>
+        <v>-0.03629982471466064</v>
       </c>
       <c r="AS2">
-        <v>0.04202886298298836</v>
+        <v>0.04051132872700691</v>
       </c>
       <c r="AT2">
-        <v>0.06623496115207672</v>
+        <v>0.08309009671211243</v>
       </c>
       <c r="AU2">
-        <v>0.06785430014133453</v>
+        <v>0.06431496888399124</v>
       </c>
       <c r="AV2">
-        <v>-0.04847321659326553</v>
+        <v>-0.03575453907251358</v>
       </c>
       <c r="AW2">
-        <v>-0.0475192628800869</v>
+        <v>-0.04608825221657753</v>
       </c>
       <c r="AX2">
-        <v>0.0153903542086482</v>
+        <v>0.03592712804675102</v>
       </c>
       <c r="AY2">
-        <v>-0.07099213451147079</v>
+        <v>-0.07015152275562286</v>
       </c>
       <c r="AZ2">
-        <v>-0.02628323063254356</v>
+        <v>-0.04606974124908447</v>
       </c>
       <c r="BA2">
-        <v>0.0375702977180481</v>
+        <v>0.0391690693795681</v>
       </c>
       <c r="BB2">
-        <v>-0.05950873717665672</v>
+        <v>-0.04304231703281403</v>
       </c>
       <c r="BC2">
-        <v>-0.01659760996699333</v>
+        <v>-0.01517412159591913</v>
       </c>
       <c r="BD2">
-        <v>0.06430528312921524</v>
+        <v>0.06367394328117371</v>
       </c>
       <c r="BE2">
-        <v>0.002722775330767035</v>
+        <v>-0.002652488648891449</v>
       </c>
       <c r="BF2">
-        <v>0.03241775929927826</v>
+        <v>0.0411648340523243</v>
       </c>
       <c r="BG2">
-        <v>-0.09447401762008667</v>
+        <v>-0.09598151594400406</v>
       </c>
       <c r="BH2">
-        <v>-0.003310337429866195</v>
+        <v>-0.01064418163150549</v>
       </c>
       <c r="BI2">
-        <v>0.0588984452188015</v>
+        <v>0.05682789161801338</v>
       </c>
       <c r="BJ2">
-        <v>-0.1430815607309341</v>
+        <v>-0.1496056169271469</v>
       </c>
       <c r="BK2">
-        <v>-0.01474822219461203</v>
+        <v>-0.001334808417595923</v>
       </c>
       <c r="BL2">
-        <v>-0.1183281540870667</v>
+        <v>-0.1140212193131447</v>
       </c>
       <c r="BM2">
-        <v>-0.05130816623568535</v>
+        <v>-0.06060230359435081</v>
       </c>
       <c r="BN2">
-        <v>-0.06102452054619789</v>
+        <v>-0.06079911068081856</v>
       </c>
       <c r="BO2">
-        <v>0.1800814419984818</v>
+        <v>0.1765641868114471</v>
       </c>
       <c r="BP2">
-        <v>-0.112827442586422</v>
+        <v>-0.123264417052269</v>
       </c>
       <c r="BQ2">
-        <v>0.004216834902763367</v>
+        <v>0.008324160240590572</v>
       </c>
       <c r="BR2">
-        <v>-0.02867926843464375</v>
+        <v>-0.02530103176832199</v>
       </c>
       <c r="BS2">
-        <v>0.02651967667043209</v>
+        <v>0.02631359733641148</v>
       </c>
       <c r="BT2">
-        <v>0.03868989273905754</v>
+        <v>0.03341099247336388</v>
       </c>
       <c r="BU2">
-        <v>0.02632332034409046</v>
+        <v>0.02917190082371235</v>
       </c>
       <c r="BV2">
-        <v>-0.04257836565375328</v>
+        <v>-0.04328380897641182</v>
       </c>
       <c r="BW2">
-        <v>-0.01620320789515972</v>
+        <v>0.004460187163203955</v>
       </c>
       <c r="BX2">
-        <v>0.003361874725669622</v>
+        <v>0.005190501920878887</v>
       </c>
       <c r="BY2">
-        <v>-0.005506326444447041</v>
+        <v>0.005169583018869162</v>
       </c>
       <c r="BZ2">
-        <v>-0.006406252738088369</v>
+        <v>-0.009553461335599422</v>
       </c>
       <c r="CA2">
-        <v>0.01438426785171032</v>
+        <v>0.01271072123199701</v>
       </c>
       <c r="CB2">
-        <v>-0.02084597945213318</v>
+        <v>-0.02290377765893936</v>
       </c>
       <c r="CC2">
-        <v>0.0182544719427824</v>
+        <v>0.01619395986199379</v>
       </c>
       <c r="CD2">
-        <v>-0.007289410568773746</v>
+        <v>-0.005987099837511778</v>
       </c>
       <c r="CE2">
-        <v>0.01163836289197206</v>
+        <v>0.02740794979035854</v>
       </c>
       <c r="CF2">
-        <v>0.1102971509099007</v>
+        <v>0.1104058548808098</v>
       </c>
       <c r="CG2">
-        <v>0.1476868242025375</v>
+        <v>0.154990628361702</v>
       </c>
       <c r="CH2">
-        <v>-0.01844449527561665</v>
+        <v>-0.008660818450152874</v>
       </c>
       <c r="CI2">
-        <v>-0.06800082325935364</v>
+        <v>-0.06911750137805939</v>
       </c>
       <c r="CJ2">
-        <v>0.3760241568088531</v>
+        <v>0.3585926592350006</v>
       </c>
       <c r="CK2">
-        <v>-0.003621376119554043</v>
+        <v>-0.0009730173042044044</v>
       </c>
       <c r="CL2">
-        <v>-0.01139691192656755</v>
+        <v>-0.01107657607644796</v>
       </c>
       <c r="CM2">
-        <v>0.006206590682268143</v>
+        <v>-0.008132973685860634</v>
       </c>
       <c r="CN2">
-        <v>-0.01715625263750553</v>
+        <v>-0.01373068429529667</v>
       </c>
       <c r="CO2">
-        <v>-0.009426997043192387</v>
+        <v>-0.00831904262304306</v>
       </c>
       <c r="CP2">
-        <v>-0.1008508801460266</v>
+        <v>-0.09019429981708527</v>
       </c>
       <c r="CQ2">
-        <v>-0.02814535424113274</v>
+        <v>-0.02820957824587822</v>
       </c>
       <c r="CR2">
-        <v>-0.0551292710006237</v>
+        <v>-0.04681815952062607</v>
       </c>
       <c r="CS2">
-        <v>-0.0124718202278018</v>
+        <v>-0.01397734694182873</v>
       </c>
       <c r="CT2">
-        <v>-0.0109953423961997</v>
+        <v>-0.01229507196694613</v>
       </c>
       <c r="CU2">
-        <v>0.01737708039581776</v>
+        <v>0.01089612394571304</v>
       </c>
       <c r="CV2">
-        <v>0.02176054567098618</v>
+        <v>0.0351545475423336</v>
       </c>
       <c r="CW2">
-        <v>-0.09659124165773392</v>
+        <v>-0.1010449454188347</v>
       </c>
       <c r="CX2">
-        <v>-0.02573991939425468</v>
+        <v>-0.02282191067934036</v>
       </c>
       <c r="CY2">
-        <v>-0.02105390653014183</v>
+        <v>-0.01987188309431076</v>
       </c>
       <c r="CZ2">
-        <v>0.0006912504904903471</v>
+        <v>-0.003012198954820633</v>
       </c>
       <c r="DA2">
-        <v>-0.1602348238229752</v>
+        <v>-0.1611606478691101</v>
       </c>
       <c r="DB2">
-        <v>-0.1262943893671036</v>
+        <v>-0.1221999600529671</v>
       </c>
       <c r="DC2">
-        <v>0.02599834464490414</v>
+        <v>0.02403100393712521</v>
       </c>
       <c r="DD2">
-        <v>0.2729082405567169</v>
+        <v>0.2769677340984344</v>
       </c>
       <c r="DE2">
-        <v>-0.004247827921062708</v>
+        <v>-0.0075748385861516</v>
       </c>
       <c r="DF2">
-        <v>-0.07824156433343887</v>
+        <v>-0.07501927018165588</v>
       </c>
       <c r="DG2">
-        <v>0.03564310818910599</v>
+        <v>0.0357414111495018</v>
       </c>
       <c r="DH2">
-        <v>-0.07992856204509735</v>
+        <v>-0.07210428267717361</v>
       </c>
       <c r="DI2">
-        <v>-0.01266702264547348</v>
+        <v>-0.02152905985713005</v>
       </c>
       <c r="DJ2">
-        <v>0.123319998383522</v>
+        <v>0.1192645281553268</v>
       </c>
       <c r="DK2">
-        <v>-0.03221546113491058</v>
+        <v>-0.04826526343822479</v>
       </c>
       <c r="DL2">
-        <v>-0.176973819732666</v>
+        <v>-0.1710868924856186</v>
       </c>
       <c r="DM2">
-        <v>-0.03101640753448009</v>
+        <v>-0.02278902381658554</v>
       </c>
       <c r="DN2">
-        <v>0.1877222955226898</v>
+        <v>0.1852794140577316</v>
       </c>
       <c r="DO2">
-        <v>-0.01641359180212021</v>
+        <v>-0.02140339463949203</v>
       </c>
       <c r="DP2">
-        <v>-0.05030107498168945</v>
+        <v>-0.04724527150392532</v>
       </c>
       <c r="DQ2">
-        <v>-0.0209274236112833</v>
+        <v>-0.0230518002063036</v>
       </c>
       <c r="DR2">
-        <v>0.002266466850414872</v>
+        <v>-0.007074015680700541</v>
       </c>
       <c r="DS2">
-        <v>0.1004961058497429</v>
+        <v>0.07174695283174515</v>
       </c>
       <c r="DT2">
-        <v>0.09511758387088776</v>
+        <v>0.09779185056686401</v>
       </c>
       <c r="DU2">
-        <v>-0.1061521023511887</v>
+        <v>-0.08700674027204514</v>
       </c>
       <c r="DV2">
-        <v>-0.00226047239266336</v>
+        <v>0.00222754362039268</v>
       </c>
       <c r="DW2">
-        <v>-0.01428111270070076</v>
+        <v>-0.006964776199311018</v>
       </c>
       <c r="DX2">
-        <v>-0.1272217482328415</v>
+        <v>-0.1280900835990906</v>
       </c>
       <c r="DY2">
-        <v>0.3233536779880524</v>
+        <v>0.3074551522731781</v>
       </c>
       <c r="DZ2">
-        <v>0.006756933405995369</v>
+        <v>0.001119823078624904</v>
       </c>
       <c r="EA2">
-        <v>0.03838000819087029</v>
+        <v>0.01432005316019058</v>
       </c>
       <c r="EB2">
-        <v>0.08988010138273239</v>
+        <v>0.08900192379951477</v>
       </c>
       <c r="EC2">
-        <v>-0.006909485906362534</v>
+        <v>-0.01385933626443148</v>
       </c>
       <c r="ED2">
-        <v>-0.1283568143844604</v>
+        <v>-0.1305056363344193</v>
       </c>
       <c r="EE2">
-        <v>0.02799923904240131</v>
+        <v>0.02604035474359989</v>
       </c>
       <c r="EF2">
-        <v>0.02172378823161125</v>
+        <v>0.03914767131209373</v>
       </c>
       <c r="EG2">
-        <v>-0.1141573339700699</v>
+        <v>-0.106761522591114</v>
       </c>
       <c r="EH2">
-        <v>0.1002151817083359</v>
+        <v>0.09164062887430191</v>
       </c>
       <c r="EI2">
-        <v>0.07350267469882965</v>
+        <v>0.0699918195605278</v>
       </c>
       <c r="EJ2">
-        <v>-0.02199174650013447</v>
+        <v>-0.03339927271008492</v>
       </c>
       <c r="EK2">
-        <v>-0.02337986417114735</v>
+        <v>-0.02199532836675644</v>
       </c>
       <c r="EL2">
-        <v>-0.01841587573289871</v>
+        <v>-0.01693393662571907</v>
       </c>
       <c r="EM2">
-        <v>0.1072258278727531</v>
+        <v>0.1102273762226105</v>
       </c>
       <c r="EN2">
-        <v>-0.1066589206457138</v>
+        <v>-0.09114550054073334</v>
       </c>
       <c r="EO2">
-        <v>-0.01354567240923643</v>
+        <v>-0.009516967460513115</v>
       </c>
       <c r="EP2">
-        <v>-0.02685264125466347</v>
+        <v>-0.006180230528116226</v>
       </c>
       <c r="EQ2">
-        <v>-0.1432098299264908</v>
+        <v>-0.1417055428028107</v>
       </c>
       <c r="ER2">
-        <v>-0.02967892959713936</v>
+        <v>-0.03853295370936394</v>
       </c>
       <c r="ES2">
-        <v>0.1486743837594986</v>
+        <v>0.1469031572341919</v>
       </c>
       <c r="ET2">
-        <v>0.04832018539309502</v>
+        <v>0.03745916485786438</v>
       </c>
       <c r="EU2">
-        <v>-0.06638992577791214</v>
+        <v>-0.07930507510900497</v>
       </c>
       <c r="EV2">
-        <v>-0.1063359156250954</v>
+        <v>-0.1087311580777168</v>
       </c>
       <c r="EW2">
-        <v>0.003789354348555207</v>
+        <v>-0.007058257237076759</v>
       </c>
       <c r="EX2">
-        <v>0.09753251820802689</v>
+        <v>0.09299188107252121</v>
       </c>
       <c r="EY2">
-        <v>-0.005944377277046442</v>
+        <v>-0.005689909681677818</v>
       </c>
       <c r="EZ2">
-        <v>0.07294812053442001</v>
+        <v>0.06652207672595978</v>
       </c>
       <c r="FA2">
-        <v>-0.003165601054206491</v>
+        <v>-0.001947610755451024</v>
       </c>
       <c r="FB2">
-        <v>-0.008809705264866352</v>
+        <v>-0.01174329221248627</v>
       </c>
       <c r="FC2">
-        <v>0.01007563341408968</v>
+        <v>0.01601585000753403</v>
       </c>
       <c r="FD2">
-        <v>0.02050072140991688</v>
+        <v>0.01421911083161831</v>
       </c>
       <c r="FE2">
-        <v>-0.06895474344491959</v>
+        <v>-0.09771594405174255</v>
       </c>
       <c r="FF2">
-        <v>0.1787109822034836</v>
+        <v>0.1814051270484924</v>
       </c>
       <c r="FG2">
-        <v>-0.05533787980675697</v>
+        <v>-0.05518460646271706</v>
       </c>
       <c r="FH2">
-        <v>0.01932361163198948</v>
+        <v>0.01842521317303181</v>
       </c>
       <c r="FI2">
-        <v>-0.127367228269577</v>
+        <v>-0.1495223939418793</v>
       </c>
       <c r="FJ2">
-        <v>0.1006002500653267</v>
+        <v>0.1027725338935852</v>
       </c>
       <c r="FK2">
-        <v>-0.1500318944454193</v>
+        <v>-0.1524670869112015</v>
       </c>
       <c r="FL2">
-        <v>-0.2182121276855469</v>
+        <v>-0.2231182456016541</v>
       </c>
       <c r="FM2">
-        <v>0.161963939666748</v>
+        <v>0.1902741491794586</v>
       </c>
       <c r="FN2">
-        <v>-0.03345395252108574</v>
+        <v>-0.02794817835092545</v>
       </c>
       <c r="FO2">
-        <v>-0.005108422599732876</v>
+        <v>0.01138804294168949</v>
       </c>
       <c r="FP2">
-        <v>0.006062919273972511</v>
+        <v>0.002668027533218265</v>
       </c>
       <c r="FQ2">
-        <v>-0.003698718966916203</v>
+        <v>-0.004019638989120722</v>
       </c>
       <c r="FR2">
-        <v>-0.01256139948964119</v>
+        <v>-0.01480106636881828</v>
       </c>
       <c r="FS2">
-        <v>0.003254434792324901</v>
+        <v>0.002275198698043823</v>
       </c>
       <c r="FT2">
-        <v>-0.01456983108073473</v>
+        <v>-0.01135404966771603</v>
       </c>
       <c r="FU2">
-        <v>-0.1363766640424728</v>
+        <v>-0.1389140486717224</v>
       </c>
       <c r="FV2">
-        <v>-0.04646260663866997</v>
+        <v>-0.04181818291544914</v>
       </c>
       <c r="FW2">
-        <v>-0.07309835404157639</v>
+        <v>-0.07585906237363815</v>
       </c>
       <c r="FX2">
-        <v>-0.03748201206326485</v>
+        <v>-0.03786385059356689</v>
       </c>
       <c r="FY2">
-        <v>-0.02441221661865711</v>
+        <v>-0.01740827597677708</v>
       </c>
       <c r="FZ2">
-        <v>-0.006501320749521255</v>
+        <v>-0.0129097132012248</v>
       </c>
       <c r="GA2">
-        <v>0.1649480611085892</v>
+        <v>0.1592874825000763</v>
       </c>
       <c r="GB2">
-        <v>-0.008994042873382568</v>
+        <v>-0.002718428149819374</v>
       </c>
       <c r="GC2">
-        <v>0.1527242958545685</v>
+        <v>0.1559691876173019</v>
       </c>
       <c r="GD2">
-        <v>0.06462898850440979</v>
+        <v>0.06309764832258224</v>
       </c>
       <c r="GE2">
-        <v>0.0411110557615757</v>
+        <v>0.04212335869669914</v>
       </c>
       <c r="GF2">
-        <v>-0.004398702643811703</v>
+        <v>-0.0197371318936348</v>
       </c>
       <c r="GG2">
-        <v>0.05445053055882454</v>
+        <v>0.0409356951713562</v>
       </c>
       <c r="GH2">
-        <v>0.005591258406639099</v>
+        <v>0.0008793551824055612</v>
       </c>
       <c r="GI2">
-        <v>-0.01092952396720648</v>
+        <v>-0.007579635363072157</v>
       </c>
       <c r="GJ2">
-        <v>-0.007249013055115938</v>
+        <v>-0.01811639033257961</v>
       </c>
       <c r="GK2">
-        <v>-0.1616190671920776</v>
+        <v>-0.1689048260450363</v>
       </c>
       <c r="GL2">
-        <v>0.0709497332572937</v>
+        <v>0.08827038109302521</v>
       </c>
       <c r="GM2">
-        <v>0.06336452066898346</v>
+        <v>0.06218980252742767</v>
       </c>
       <c r="GN2">
-        <v>-0.003488117596134543</v>
+        <v>-0.009895987808704376</v>
       </c>
       <c r="GO2">
-        <v>-0.1097490265965462</v>
+        <v>-0.1085832342505455</v>
       </c>
       <c r="GP2">
-        <v>0.04084952548146248</v>
+        <v>0.04037399590015411</v>
       </c>
       <c r="GQ2">
-        <v>-0.009791647084057331</v>
+        <v>0.004512210842221975</v>
       </c>
       <c r="GR2">
-        <v>0.004556747619062662</v>
+        <v>-0.007040436379611492</v>
       </c>
       <c r="GS2">
-        <v>-0.08532604575157166</v>
+        <v>-0.07443078607320786</v>
       </c>
       <c r="GT2">
-        <v>0.01223622355610132</v>
+        <v>0.008896411396563053</v>
       </c>
       <c r="GU2">
-        <v>0.003651347942650318</v>
+        <v>0.006136361509561539</v>
       </c>
       <c r="GV2">
-        <v>-0.02738334983587265</v>
+        <v>-0.03070035204291344</v>
       </c>
       <c r="GW2">
-        <v>0.1953402161598206</v>
+        <v>0.1958271414041519</v>
       </c>
       <c r="GX2">
-        <v>-0.01070254761725664</v>
+        <v>-0.01214461401104927</v>
       </c>
       <c r="GY2">
-        <v>0.02096210233867168</v>
+        <v>0.02018777839839458</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.02162829786539078</v>
+        <v>0.02325443364679813</v>
       </c>
       <c r="C2">
-        <v>-0.01732466742396355</v>
+        <v>-0.03202391043305397</v>
       </c>
       <c r="D2">
-        <v>-0.006345061585307121</v>
+        <v>0.005049424711614847</v>
       </c>
       <c r="E2">
-        <v>0.1310967057943344</v>
+        <v>0.1188333332538605</v>
       </c>
       <c r="F2">
-        <v>0.02949902601540089</v>
+        <v>0.02056209743022919</v>
       </c>
       <c r="G2">
-        <v>0.008838498033583164</v>
+        <v>-0.01159229502081871</v>
       </c>
       <c r="H2">
-        <v>-0.01422543544322252</v>
+        <v>-0.0247532669454813</v>
       </c>
       <c r="I2">
-        <v>-0.001273694331757724</v>
+        <v>0.0001864823861978948</v>
       </c>
       <c r="J2">
-        <v>-0.09747873991727829</v>
+        <v>-0.1014170497655869</v>
       </c>
       <c r="K2">
-        <v>-0.006405348889529705</v>
+        <v>-0.02405171468853951</v>
       </c>
       <c r="L2">
-        <v>0.0173986405134201</v>
+        <v>0.01853730715811253</v>
       </c>
       <c r="M2">
-        <v>-0.01720818690955639</v>
+        <v>-0.01077228598296642</v>
       </c>
       <c r="N2">
-        <v>0.004221344366669655</v>
+        <v>0.001808926579542458</v>
       </c>
       <c r="O2">
-        <v>0.2402769029140472</v>
+        <v>0.2641554772853851</v>
       </c>
       <c r="P2">
-        <v>0.0939028337597847</v>
+        <v>0.08179201930761337</v>
       </c>
       <c r="Q2">
-        <v>-0.1124086827039719</v>
+        <v>-0.111989751458168</v>
       </c>
       <c r="R2">
-        <v>-0.01750402897596359</v>
+        <v>-0.008943711407482624</v>
       </c>
       <c r="S2">
-        <v>0.0398121178150177</v>
+        <v>0.04961294680833817</v>
       </c>
       <c r="T2">
-        <v>-0.06379418820142746</v>
+        <v>-0.06621640920639038</v>
       </c>
       <c r="U2">
-        <v>-0.06829772144556046</v>
+        <v>-0.071011982858181</v>
       </c>
       <c r="V2">
-        <v>0.02357769012451172</v>
+        <v>0.01557635981589556</v>
       </c>
       <c r="W2">
-        <v>-0.1520096361637115</v>
+        <v>-0.1321611702442169</v>
       </c>
       <c r="X2">
-        <v>0.006690036505460739</v>
+        <v>-0.005940313916653395</v>
       </c>
       <c r="Y2">
-        <v>0.1244211420416832</v>
+        <v>0.1033955365419388</v>
       </c>
       <c r="Z2">
-        <v>-0.106546625494957</v>
+        <v>-0.1056122779846191</v>
       </c>
       <c r="AA2">
-        <v>0.02517023496329784</v>
+        <v>0.03041090443730354</v>
       </c>
       <c r="AB2">
-        <v>-0.03183563053607941</v>
+        <v>-0.02930803410708904</v>
       </c>
       <c r="AC2">
-        <v>-0.04056516662240028</v>
+        <v>-0.04411632940173149</v>
       </c>
       <c r="AD2">
-        <v>-0.03716313093900681</v>
+        <v>-0.03785702958703041</v>
       </c>
       <c r="AE2">
-        <v>0.07287151366472244</v>
+        <v>0.08201419562101364</v>
       </c>
       <c r="AF2">
-        <v>0.02235970832407475</v>
+        <v>0.02145207673311234</v>
       </c>
       <c r="AG2">
-        <v>0.1452574133872986</v>
+        <v>0.139847457408905</v>
       </c>
       <c r="AH2">
-        <v>0.1774113178253174</v>
+        <v>0.1776323169469833</v>
       </c>
       <c r="AI2">
-        <v>0.08266628533601761</v>
+        <v>0.1038596928119659</v>
       </c>
       <c r="AJ2">
-        <v>-0.001298419665545225</v>
+        <v>-0.004073587711900473</v>
       </c>
       <c r="AK2">
-        <v>-0.05984168499708176</v>
+        <v>-0.05327961221337318</v>
       </c>
       <c r="AL2">
-        <v>-0.02096273005008698</v>
+        <v>-0.02409692667424679</v>
       </c>
       <c r="AM2">
-        <v>-0.07645679265260696</v>
+        <v>-0.05627508834004402</v>
       </c>
       <c r="AN2">
-        <v>0.1523002684116364</v>
+        <v>0.1445202529430389</v>
       </c>
       <c r="AO2">
-        <v>0.08790489286184311</v>
+        <v>0.07918491959571838</v>
       </c>
       <c r="AP2">
-        <v>-0.02830489352345467</v>
+        <v>-0.02611709572374821</v>
       </c>
       <c r="AQ2">
-        <v>-0.0127417566254735</v>
+        <v>-0.00450598169118166</v>
       </c>
       <c r="AR2">
-        <v>-0.03629982471466064</v>
+        <v>-0.0134506281465292</v>
       </c>
       <c r="AS2">
-        <v>0.04051132872700691</v>
+        <v>0.03407702222466469</v>
       </c>
       <c r="AT2">
-        <v>0.08309009671211243</v>
+        <v>0.08521274477243423</v>
       </c>
       <c r="AU2">
-        <v>0.06431496888399124</v>
+        <v>0.06526912748813629</v>
       </c>
       <c r="AV2">
-        <v>-0.03575453907251358</v>
+        <v>-0.04148216918110847</v>
       </c>
       <c r="AW2">
-        <v>-0.04608825221657753</v>
+        <v>-0.03966859355568886</v>
       </c>
       <c r="AX2">
-        <v>0.03592712804675102</v>
+        <v>0.01222238689661026</v>
       </c>
       <c r="AY2">
-        <v>-0.07015152275562286</v>
+        <v>-0.07514126598834991</v>
       </c>
       <c r="AZ2">
-        <v>-0.04606974124908447</v>
+        <v>-0.03697670623660088</v>
       </c>
       <c r="BA2">
-        <v>0.0391690693795681</v>
+        <v>0.04716259986162186</v>
       </c>
       <c r="BB2">
-        <v>-0.04304231703281403</v>
+        <v>-0.05827108770608902</v>
       </c>
       <c r="BC2">
-        <v>-0.01517412159591913</v>
+        <v>-0.01319991145282984</v>
       </c>
       <c r="BD2">
-        <v>0.06367394328117371</v>
+        <v>0.06399572640657425</v>
       </c>
       <c r="BE2">
-        <v>-0.002652488648891449</v>
+        <v>0.0005418658838607371</v>
       </c>
       <c r="BF2">
-        <v>0.0411648340523243</v>
+        <v>0.0203251875936985</v>
       </c>
       <c r="BG2">
-        <v>-0.09598151594400406</v>
+        <v>-0.09817074239253998</v>
       </c>
       <c r="BH2">
-        <v>-0.01064418163150549</v>
+        <v>0.002327409107238054</v>
       </c>
       <c r="BI2">
-        <v>0.05682789161801338</v>
+        <v>0.05329893529415131</v>
       </c>
       <c r="BJ2">
-        <v>-0.1496056169271469</v>
+        <v>-0.1520717442035675</v>
       </c>
       <c r="BK2">
-        <v>-0.001334808417595923</v>
+        <v>-0.006544258445501328</v>
       </c>
       <c r="BL2">
-        <v>-0.1140212193131447</v>
+        <v>-0.1100902333855629</v>
       </c>
       <c r="BM2">
-        <v>-0.06060230359435081</v>
+        <v>-0.05213410407304764</v>
       </c>
       <c r="BN2">
-        <v>-0.06079911068081856</v>
+        <v>-0.04582809656858444</v>
       </c>
       <c r="BO2">
-        <v>0.1765641868114471</v>
+        <v>0.1867326945066452</v>
       </c>
       <c r="BP2">
-        <v>-0.123264417052269</v>
+        <v>-0.1243579685688019</v>
       </c>
       <c r="BQ2">
-        <v>0.008324160240590572</v>
+        <v>0.01142218708992004</v>
       </c>
       <c r="BR2">
-        <v>-0.02530103176832199</v>
+        <v>-0.03246470913290977</v>
       </c>
       <c r="BS2">
-        <v>0.02631359733641148</v>
+        <v>0.02390580624341965</v>
       </c>
       <c r="BT2">
-        <v>0.03341099247336388</v>
+        <v>0.03983939439058304</v>
       </c>
       <c r="BU2">
-        <v>0.02917190082371235</v>
+        <v>0.02893557958304882</v>
       </c>
       <c r="BV2">
-        <v>-0.04328380897641182</v>
+        <v>-0.06608563661575317</v>
       </c>
       <c r="BW2">
-        <v>0.004460187163203955</v>
+        <v>-0.004177288617938757</v>
       </c>
       <c r="BX2">
-        <v>0.005190501920878887</v>
+        <v>0.003507067915052176</v>
       </c>
       <c r="BY2">
-        <v>0.005169583018869162</v>
+        <v>-0.01870310492813587</v>
       </c>
       <c r="BZ2">
-        <v>-0.009553461335599422</v>
+        <v>-0.01984252966940403</v>
       </c>
       <c r="CA2">
-        <v>0.01271072123199701</v>
+        <v>0.01562230102717876</v>
       </c>
       <c r="CB2">
-        <v>-0.02290377765893936</v>
+        <v>-0.03036104887723923</v>
       </c>
       <c r="CC2">
-        <v>0.01619395986199379</v>
+        <v>0.01395601779222488</v>
       </c>
       <c r="CD2">
-        <v>-0.005987099837511778</v>
+        <v>-0.0212373360991478</v>
       </c>
       <c r="CE2">
-        <v>0.02740794979035854</v>
+        <v>0.02542705833911896</v>
       </c>
       <c r="CF2">
-        <v>0.1104058548808098</v>
+        <v>0.1179158762097359</v>
       </c>
       <c r="CG2">
-        <v>0.154990628361702</v>
+        <v>0.1415185928344727</v>
       </c>
       <c r="CH2">
-        <v>-0.008660818450152874</v>
+        <v>0.0009512576507404447</v>
       </c>
       <c r="CI2">
-        <v>-0.06911750137805939</v>
+        <v>-0.0717160701751709</v>
       </c>
       <c r="CJ2">
-        <v>0.3585926592350006</v>
+        <v>0.3425765037536621</v>
       </c>
       <c r="CK2">
-        <v>-0.0009730173042044044</v>
+        <v>0.004168743267655373</v>
       </c>
       <c r="CL2">
-        <v>-0.01107657607644796</v>
+        <v>-0.01022692862898111</v>
       </c>
       <c r="CM2">
-        <v>-0.008132973685860634</v>
+        <v>-0.01218552049249411</v>
       </c>
       <c r="CN2">
-        <v>-0.01373068429529667</v>
+        <v>-0.01463481597602367</v>
       </c>
       <c r="CO2">
-        <v>-0.00831904262304306</v>
+        <v>-0.005561573896557093</v>
       </c>
       <c r="CP2">
-        <v>-0.09019429981708527</v>
+        <v>-0.09583891183137894</v>
       </c>
       <c r="CQ2">
-        <v>-0.02820957824587822</v>
+        <v>-0.03061427362263203</v>
       </c>
       <c r="CR2">
-        <v>-0.04681815952062607</v>
+        <v>-0.02610223740339279</v>
       </c>
       <c r="CS2">
-        <v>-0.01397734694182873</v>
+        <v>-0.01405066344887018</v>
       </c>
       <c r="CT2">
-        <v>-0.01229507196694613</v>
+        <v>-0.01372661255300045</v>
       </c>
       <c r="CU2">
-        <v>0.01089612394571304</v>
+        <v>0.001349008060060441</v>
       </c>
       <c r="CV2">
-        <v>0.0351545475423336</v>
+        <v>0.01951684430241585</v>
       </c>
       <c r="CW2">
-        <v>-0.1010449454188347</v>
+        <v>-0.0847974419593811</v>
       </c>
       <c r="CX2">
-        <v>-0.02282191067934036</v>
+        <v>-0.01777000539004803</v>
       </c>
       <c r="CY2">
-        <v>-0.01987188309431076</v>
+        <v>-0.01621129736304283</v>
       </c>
       <c r="CZ2">
-        <v>-0.003012198954820633</v>
+        <v>-0.0008785086101852357</v>
       </c>
       <c r="DA2">
-        <v>-0.1611606478691101</v>
+        <v>-0.1510514318943024</v>
       </c>
       <c r="DB2">
-        <v>-0.1221999600529671</v>
+        <v>-0.1187287420034409</v>
       </c>
       <c r="DC2">
-        <v>0.02403100393712521</v>
+        <v>0.01500031724572182</v>
       </c>
       <c r="DD2">
-        <v>0.2769677340984344</v>
+        <v>0.2760306894779205</v>
       </c>
       <c r="DE2">
-        <v>-0.0075748385861516</v>
+        <v>-0.007367700804024935</v>
       </c>
       <c r="DF2">
-        <v>-0.07501927018165588</v>
+        <v>-0.07079128921031952</v>
       </c>
       <c r="DG2">
-        <v>0.0357414111495018</v>
+        <v>0.02332491055130959</v>
       </c>
       <c r="DH2">
-        <v>-0.07210428267717361</v>
+        <v>-0.04908657819032669</v>
       </c>
       <c r="DI2">
-        <v>-0.02152905985713005</v>
+        <v>-0.01817701011896133</v>
       </c>
       <c r="DJ2">
-        <v>0.1192645281553268</v>
+        <v>0.1244765743613243</v>
       </c>
       <c r="DK2">
-        <v>-0.04826526343822479</v>
+        <v>-0.06791101396083832</v>
       </c>
       <c r="DL2">
-        <v>-0.1710868924856186</v>
+        <v>-0.1900243759155273</v>
       </c>
       <c r="DM2">
-        <v>-0.02278902381658554</v>
+        <v>-0.01400545332580805</v>
       </c>
       <c r="DN2">
-        <v>0.1852794140577316</v>
+        <v>0.1824485659599304</v>
       </c>
       <c r="DO2">
-        <v>-0.02140339463949203</v>
+        <v>-0.01683464460074902</v>
       </c>
       <c r="DP2">
-        <v>-0.04724527150392532</v>
+        <v>-0.04410473629832268</v>
       </c>
       <c r="DQ2">
-        <v>-0.0230518002063036</v>
+        <v>-0.02136095985770226</v>
       </c>
       <c r="DR2">
-        <v>-0.007074015680700541</v>
+        <v>-0.002143146237358451</v>
       </c>
       <c r="DS2">
-        <v>0.07174695283174515</v>
+        <v>0.04777431488037109</v>
       </c>
       <c r="DT2">
-        <v>0.09779185056686401</v>
+        <v>0.1055804938077927</v>
       </c>
       <c r="DU2">
-        <v>-0.08700674027204514</v>
+        <v>-0.1049589961767197</v>
       </c>
       <c r="DV2">
-        <v>0.00222754362039268</v>
+        <v>0.01313342060893774</v>
       </c>
       <c r="DW2">
-        <v>-0.006964776199311018</v>
+        <v>-0.008566763252019882</v>
       </c>
       <c r="DX2">
-        <v>-0.1280900835990906</v>
+        <v>-0.1293877363204956</v>
       </c>
       <c r="DY2">
-        <v>0.3074551522731781</v>
+        <v>0.2966574728488922</v>
       </c>
       <c r="DZ2">
-        <v>0.001119823078624904</v>
+        <v>0.002136144554242492</v>
       </c>
       <c r="EA2">
-        <v>0.01432005316019058</v>
+        <v>-0.01205881498754025</v>
       </c>
       <c r="EB2">
-        <v>0.08900192379951477</v>
+        <v>0.08690305054187775</v>
       </c>
       <c r="EC2">
-        <v>-0.01385933626443148</v>
+        <v>-0.006184989120811224</v>
       </c>
       <c r="ED2">
-        <v>-0.1305056363344193</v>
+        <v>-0.1333315521478653</v>
       </c>
       <c r="EE2">
-        <v>0.02604035474359989</v>
+        <v>0.02530679665505886</v>
       </c>
       <c r="EF2">
-        <v>0.03914767131209373</v>
+        <v>0.03833441436290741</v>
       </c>
       <c r="EG2">
-        <v>-0.106761522591114</v>
+        <v>-0.09495809674263</v>
       </c>
       <c r="EH2">
-        <v>0.09164062887430191</v>
+        <v>0.08866170048713684</v>
       </c>
       <c r="EI2">
-        <v>0.0699918195605278</v>
+        <v>0.05633864924311638</v>
       </c>
       <c r="EJ2">
-        <v>-0.03339927271008492</v>
+        <v>-0.01340665202587843</v>
       </c>
       <c r="EK2">
-        <v>-0.02199532836675644</v>
+        <v>-0.02033644169569016</v>
       </c>
       <c r="EL2">
-        <v>-0.01693393662571907</v>
+        <v>-0.01513885892927647</v>
       </c>
       <c r="EM2">
-        <v>0.1102273762226105</v>
+        <v>0.09323588013648987</v>
       </c>
       <c r="EN2">
-        <v>-0.09114550054073334</v>
+        <v>-0.09814087301492691</v>
       </c>
       <c r="EO2">
-        <v>-0.009516967460513115</v>
+        <v>-0.02426820062100887</v>
       </c>
       <c r="EP2">
-        <v>-0.006180230528116226</v>
+        <v>-0.01046710181981325</v>
       </c>
       <c r="EQ2">
-        <v>-0.1417055428028107</v>
+        <v>-0.1245502457022667</v>
       </c>
       <c r="ER2">
-        <v>-0.03853295370936394</v>
+        <v>-0.01964106969535351</v>
       </c>
       <c r="ES2">
-        <v>0.1469031572341919</v>
+        <v>0.1386711448431015</v>
       </c>
       <c r="ET2">
-        <v>0.03745916485786438</v>
+        <v>0.01982150413095951</v>
       </c>
       <c r="EU2">
-        <v>-0.07930507510900497</v>
+        <v>-0.07703915238380432</v>
       </c>
       <c r="EV2">
-        <v>-0.1087311580777168</v>
+        <v>-0.1234016343951225</v>
       </c>
       <c r="EW2">
-        <v>-0.007058257237076759</v>
+        <v>-0.001663890434429049</v>
       </c>
       <c r="EX2">
-        <v>0.09299188107252121</v>
+        <v>0.1075381934642792</v>
       </c>
       <c r="EY2">
-        <v>-0.005689909681677818</v>
+        <v>-0.007762247696518898</v>
       </c>
       <c r="EZ2">
-        <v>0.06652207672595978</v>
+        <v>0.06736838817596436</v>
       </c>
       <c r="FA2">
-        <v>-0.001947610755451024</v>
+        <v>0.01341565232723951</v>
       </c>
       <c r="FB2">
-        <v>-0.01174329221248627</v>
+        <v>-0.01182739436626434</v>
       </c>
       <c r="FC2">
-        <v>0.01601585000753403</v>
+        <v>0.0246004443615675</v>
       </c>
       <c r="FD2">
-        <v>0.01421911083161831</v>
+        <v>0.01608873717486858</v>
       </c>
       <c r="FE2">
-        <v>-0.09771594405174255</v>
+        <v>-0.1078256815671921</v>
       </c>
       <c r="FF2">
-        <v>0.1814051270484924</v>
+        <v>0.1841626018285751</v>
       </c>
       <c r="FG2">
-        <v>-0.05518460646271706</v>
+        <v>-0.04388329014182091</v>
       </c>
       <c r="FH2">
-        <v>0.01842521317303181</v>
+        <v>0.005252304952591658</v>
       </c>
       <c r="FI2">
-        <v>-0.1495223939418793</v>
+        <v>-0.1558559834957123</v>
       </c>
       <c r="FJ2">
-        <v>0.1027725338935852</v>
+        <v>0.08753817528486252</v>
       </c>
       <c r="FK2">
-        <v>-0.1524670869112015</v>
+        <v>-0.1336915194988251</v>
       </c>
       <c r="FL2">
-        <v>-0.2231182456016541</v>
+        <v>-0.2186662703752518</v>
       </c>
       <c r="FM2">
-        <v>0.1902741491794586</v>
+        <v>0.1616852432489395</v>
       </c>
       <c r="FN2">
-        <v>-0.02794817835092545</v>
+        <v>-0.02336512878537178</v>
       </c>
       <c r="FO2">
-        <v>0.01138804294168949</v>
+        <v>0.005231773480772972</v>
       </c>
       <c r="FP2">
-        <v>0.002668027533218265</v>
+        <v>0.005018651951104403</v>
       </c>
       <c r="FQ2">
-        <v>-0.004019638989120722</v>
+        <v>-0.002655010903254151</v>
       </c>
       <c r="FR2">
-        <v>-0.01480106636881828</v>
+        <v>-0.01335741300135851</v>
       </c>
       <c r="FS2">
-        <v>0.002275198698043823</v>
+        <v>0.002472813706845045</v>
       </c>
       <c r="FT2">
-        <v>-0.01135404966771603</v>
+        <v>-0.006026973482221365</v>
       </c>
       <c r="FU2">
-        <v>-0.1389140486717224</v>
+        <v>-0.1434480249881744</v>
       </c>
       <c r="FV2">
-        <v>-0.04181818291544914</v>
+        <v>-0.03684144094586372</v>
       </c>
       <c r="FW2">
-        <v>-0.07585906237363815</v>
+        <v>-0.08133618533611298</v>
       </c>
       <c r="FX2">
-        <v>-0.03786385059356689</v>
+        <v>-0.03561292216181755</v>
       </c>
       <c r="FY2">
-        <v>-0.01740827597677708</v>
+        <v>-0.001912560081109405</v>
       </c>
       <c r="FZ2">
-        <v>-0.0129097132012248</v>
+        <v>0.001554639544337988</v>
       </c>
       <c r="GA2">
-        <v>0.1592874825000763</v>
+        <v>0.1511057466268539</v>
       </c>
       <c r="GB2">
-        <v>-0.002718428149819374</v>
+        <v>-0.01417487021535635</v>
       </c>
       <c r="GC2">
-        <v>0.1559691876173019</v>
+        <v>0.1652987748384476</v>
       </c>
       <c r="GD2">
-        <v>0.06309764832258224</v>
+        <v>0.06167426705360413</v>
       </c>
       <c r="GE2">
-        <v>0.04212335869669914</v>
+        <v>0.04338884726166725</v>
       </c>
       <c r="GF2">
-        <v>-0.0197371318936348</v>
+        <v>-0.02193188481032848</v>
       </c>
       <c r="GG2">
-        <v>0.0409356951713562</v>
+        <v>0.05068515986204147</v>
       </c>
       <c r="GH2">
-        <v>0.0008793551824055612</v>
+        <v>0.005025768186897039</v>
       </c>
       <c r="GI2">
-        <v>-0.007579635363072157</v>
+        <v>-0.01042427308857441</v>
       </c>
       <c r="GJ2">
-        <v>-0.01811639033257961</v>
+        <v>-0.01802792213857174</v>
       </c>
       <c r="GK2">
-        <v>-0.1689048260450363</v>
+        <v>-0.1763950735330582</v>
       </c>
       <c r="GL2">
-        <v>0.08827038109302521</v>
+        <v>0.06464618444442749</v>
       </c>
       <c r="GM2">
-        <v>0.06218980252742767</v>
+        <v>0.07720933109521866</v>
       </c>
       <c r="GN2">
-        <v>-0.009895987808704376</v>
+        <v>-0.006908359937369823</v>
       </c>
       <c r="GO2">
-        <v>-0.1085832342505455</v>
+        <v>-0.1153008341789246</v>
       </c>
       <c r="GP2">
-        <v>0.04037399590015411</v>
+        <v>0.04188720136880875</v>
       </c>
       <c r="GQ2">
-        <v>0.004512210842221975</v>
+        <v>0.009869389235973358</v>
       </c>
       <c r="GR2">
-        <v>-0.007040436379611492</v>
+        <v>-0.00605382164940238</v>
       </c>
       <c r="GS2">
-        <v>-0.07443078607320786</v>
+        <v>-0.08607427030801773</v>
       </c>
       <c r="GT2">
-        <v>0.008896411396563053</v>
+        <v>-0.003930963110178709</v>
       </c>
       <c r="GU2">
-        <v>0.006136361509561539</v>
+        <v>0.01110966689884663</v>
       </c>
       <c r="GV2">
-        <v>-0.03070035204291344</v>
+        <v>-0.01761635020375252</v>
       </c>
       <c r="GW2">
-        <v>0.1958271414041519</v>
+        <v>0.1917417198419571</v>
       </c>
       <c r="GX2">
-        <v>-0.01214461401104927</v>
+        <v>-0.01224581990391016</v>
       </c>
       <c r="GY2">
-        <v>0.02018777839839458</v>
+        <v>0.01906147971749306</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02528730407357216</v>
+        <v>0.02130080945789814</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04169032350182533</v>
+        <v>-0.04935542866587639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009797752136364579</v>
+        <v>0.001071873819455504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1122562512755394</v>
+        <v>0.1271169483661652</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0265217199921608</v>
+        <v>0.01874314248561859</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0145436730235815</v>
+        <v>-0.0103871738538146</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02362843044102192</v>
+        <v>-0.01026389095932245</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001909896673168987</v>
+        <v>0.001721248612739146</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.09615070372819901</v>
+        <v>-0.09819441288709641</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02319949306547642</v>
+        <v>-0.01641131937503815</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01100882887840271</v>
+        <v>0.001659260597079992</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.004537890665233135</v>
+        <v>-0.0118428785353899</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005254976451396942</v>
+        <v>-0.002141171135008335</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2564732730388641</v>
+        <v>0.2673439383506775</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07405261695384979</v>
+        <v>0.07969748228788376</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1268127411603928</v>
+        <v>-0.1171651482582092</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.005847209133207798</v>
+        <v>-0.008287091739475727</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05904081836342812</v>
+        <v>0.06737057864665985</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.06785625219345093</v>
+        <v>-0.0651085302233696</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.07603002339601517</v>
+        <v>-0.07709623873233795</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01359296590089798</v>
+        <v>0.02468464337289333</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1291974484920502</v>
+        <v>-0.1371505409479141</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.01167542114853859</v>
+        <v>-0.01739564351737499</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09481758624315262</v>
+        <v>0.1017507910728455</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.1007495298981667</v>
+        <v>-0.08923302590847015</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02675460465252399</v>
+        <v>0.02664003148674965</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.03104866854846478</v>
+        <v>-0.02579339593648911</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.04180407524108887</v>
+        <v>-0.0556083470582962</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.03941863402724266</v>
+        <v>-0.03887926042079926</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.07976806908845901</v>
+        <v>0.08659044653177261</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02929746359586716</v>
+        <v>0.03566142916679382</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1455677598714828</v>
+        <v>0.1532224118709564</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1965364813804626</v>
+        <v>0.1916318833827972</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.09453059732913971</v>
+        <v>0.08345627784729004</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.004882385022938251</v>
+        <v>0.002091996371746063</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0500781387090683</v>
+        <v>-0.05195256695151329</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02706358768045902</v>
+        <v>-0.02257596887648106</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.05604440346360207</v>
+        <v>-0.05162477120757103</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1309182941913605</v>
+        <v>0.1436682194471359</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.07080420851707458</v>
+        <v>0.06819270551204681</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.02365944907069206</v>
+        <v>-0.01050239708274603</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.01443900167942047</v>
+        <v>-0.003259177319705486</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.02591954730451107</v>
+        <v>-0.01294341403990984</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.02482778206467628</v>
+        <v>0.03744756802916527</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.08501482009887695</v>
+        <v>0.08753101527690887</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0655239075422287</v>
+        <v>0.0599951446056366</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.04603530466556549</v>
+        <v>-0.03898067027330399</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.03525671735405922</v>
+        <v>-0.03619558364152908</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01127285230904818</v>
+        <v>0.02377110719680786</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.07366421818733215</v>
+        <v>-0.08081091940402985</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.03464684262871742</v>
+        <v>-0.04610714316368103</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.05018031224608421</v>
+        <v>0.05959479138255119</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.07537209987640381</v>
+        <v>-0.07933887839317322</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.008303276263177395</v>
+        <v>-0.005459141917526722</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.06345067918300629</v>
+        <v>0.06385558098554611</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.002241767011582851</v>
+        <v>-0.006847490556538105</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01202641893178225</v>
+        <v>0.01031682267785072</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.1014249101281166</v>
+        <v>-0.09912643581628799</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.005203472916036844</v>
+        <v>0.000731233973056078</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.05119111388921738</v>
+        <v>0.05496317148208618</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.1619011014699936</v>
+        <v>-0.1611063778400421</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.003954298794269562</v>
+        <v>0.001094224746339023</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.105705238878727</v>
+        <v>-0.1095708236098289</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.05001495406031609</v>
+        <v>-0.03659229725599289</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.05068771541118622</v>
+        <v>-0.044148039072752</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.192730575799942</v>
+        <v>0.1886603683233261</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.1289262026548386</v>
+        <v>-0.1395489573478699</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0007725623436272144</v>
+        <v>0.01342589966952801</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.02538133971393108</v>
+        <v>-0.03053990006446838</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.02099442109465599</v>
+        <v>0.0247248038649559</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.03996729105710983</v>
+        <v>0.03913616761565208</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0272357277572155</v>
+        <v>0.02865945175290108</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.06566059589385986</v>
+        <v>-0.06677969545125961</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.004547408316284418</v>
+        <v>-0.004037606064230204</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.01019899919629097</v>
+        <v>0.007887847721576691</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01937481760978699</v>
+        <v>-0.02244616113603115</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0167449489235878</v>
+        <v>-0.01571036875247955</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01549583114683628</v>
+        <v>0.009043971076607704</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.04123559221625328</v>
+        <v>-0.02648813650012016</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0116605069488287</v>
+        <v>0.01473693549633026</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.02381590940058231</v>
+        <v>-0.01968451216816902</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.02597549930214882</v>
+        <v>0.02805661410093307</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.1172362938523293</v>
+        <v>0.1190165877342224</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1439567506313324</v>
+        <v>0.1309729963541031</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.006614682730287313</v>
+        <v>-0.005802014376968145</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.07359553873538971</v>
+        <v>-0.07300666719675064</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.3411996364593506</v>
+        <v>0.3306468725204468</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.005918031092733145</v>
+        <v>0.00413342984393239</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.009990849532186985</v>
+        <v>-0.007198118139058352</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.01504899468272924</v>
+        <v>-0.008672230876982212</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0232518520206213</v>
+        <v>-0.02125248871743679</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.005257033742964268</v>
+        <v>-0.007448429707437754</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.1097412109375</v>
+        <v>-0.1176927089691162</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.03318533673882484</v>
+        <v>-0.03134522214531898</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.02788010612130165</v>
+        <v>-0.02657084725797176</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.01369545422494411</v>
+        <v>-0.01433257665485144</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.01513353269547224</v>
+        <v>-0.01365555357187986</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.008069570176303387</v>
+        <v>-0.005187845788896084</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01899735070765018</v>
+        <v>0.01929999142885208</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.07863971590995789</v>
+        <v>-0.06614027172327042</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.009188447147607803</v>
+        <v>-0.008151729591190815</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.01514848228543997</v>
+        <v>-0.01610114797949791</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.001204278552904725</v>
+        <v>-0.006458321120589972</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.1455555856227875</v>
+        <v>-0.1583187729120255</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.1184914633631706</v>
+        <v>-0.114854171872139</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.009566875174641609</v>
+        <v>-0.001110048848204315</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2835520207881927</v>
+        <v>0.2821880877017975</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.00786244310438633</v>
+        <v>-0.008625436574220657</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.06641018390655518</v>
+        <v>-0.06968304514884949</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01539799943566322</v>
+        <v>0.01491313986480236</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.03733734041452408</v>
+        <v>-0.03298740833997726</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01554812956601381</v>
+        <v>-0.01348061207681894</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.1367471069097519</v>
+        <v>0.1341350674629211</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.06354541331529617</v>
+        <v>-0.07099737226963043</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1882577240467072</v>
+        <v>-0.1848041564226151</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.001830858294852078</v>
+        <v>0.005394837819039822</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.1792852431535721</v>
+        <v>0.1808024048805237</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01810470595955849</v>
+        <v>-0.01567181013524532</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.04433279484510422</v>
+        <v>-0.04668759927153587</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.02179884724318981</v>
+        <v>-0.02215847931802273</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.008911781013011932</v>
+        <v>-0.004818839952349663</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.04128555580973625</v>
+        <v>0.03453436121344566</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.1001317054033279</v>
+        <v>0.1041930094361305</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.103481151163578</v>
+        <v>-0.1150795295834541</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.016753314062953</v>
+        <v>0.009354366920888424</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.001184640685096383</v>
+        <v>-0.00944897998124361</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.1310397386550903</v>
+        <v>-0.1295012235641479</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.2917049527168274</v>
+        <v>0.2794100344181061</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0068820477463305</v>
+        <v>0.01171740889549255</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0110293785110116</v>
+        <v>-0.006010226439684629</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.08530331403017044</v>
+        <v>0.08608881384134293</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.006032292731106281</v>
+        <v>-0.007380664814263582</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.1345048695802689</v>
+        <v>-0.1319580376148224</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.02358346991240978</v>
+        <v>0.02340325526893139</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03321203961968422</v>
+        <v>0.03921283781528473</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.09088019281625748</v>
+        <v>-0.08589621633291245</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.08299066126346588</v>
+        <v>0.09058542549610138</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.05478408560156822</v>
+        <v>0.06143175810575485</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.02459088526666164</v>
+        <v>-0.02036199159920216</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.01991175673902035</v>
+        <v>-0.01759452372789383</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.01476106327027082</v>
+        <v>-0.01609478332102299</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0835597962141037</v>
+        <v>0.08683432638645172</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1037125736474991</v>
+        <v>-0.08989398181438446</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.02046769857406616</v>
+        <v>-0.0334281399846077</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.001238860306330025</v>
+        <v>0.01527482084929943</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.1235039755702019</v>
+        <v>-0.1163044795393944</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.01758197322487831</v>
+        <v>-0.01253784261643887</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.1479046791791916</v>
+        <v>0.1462804824113846</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.01102794893085957</v>
+        <v>0.02482018247246742</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.08145900815725327</v>
+        <v>-0.09004998952150345</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.1343516260385513</v>
+        <v>-0.1252468079328537</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.007267976179718971</v>
+        <v>-0.01285830140113831</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.1114111021161079</v>
+        <v>0.1038505882024765</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01349907275289297</v>
+        <v>-0.01205482985824347</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.06298228353261948</v>
+        <v>0.06164716556668282</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006006494164466858</v>
+        <v>-0.006580783054232597</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01206304412335157</v>
+        <v>-0.01231870055198669</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.03478195145726204</v>
+        <v>0.03651970624923706</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.01468828693032265</v>
+        <v>0.01156731322407722</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.1156505942344666</v>
+        <v>-0.1203156486153603</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.1874780207872391</v>
+        <v>0.1990515738725662</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.04992754012346268</v>
+        <v>-0.04342913255095482</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.003166992217302322</v>
+        <v>0.001393656828440726</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.1460205912590027</v>
+        <v>-0.1532569378614426</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.08137039840221405</v>
+        <v>0.08513882756233215</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.1337627619504929</v>
+        <v>-0.1198240220546722</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.2239868193864822</v>
+        <v>-0.2297999560832977</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.1528795808553696</v>
+        <v>0.1589519530534744</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.0177936814725399</v>
+        <v>-0.02207259275019169</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.002895571058616042</v>
+        <v>-0.002316511236131191</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.001515926327556372</v>
+        <v>0.002811259357258677</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.002256351988762617</v>
+        <v>-0.004533329047262669</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01321152970194817</v>
+        <v>-0.01334838848561049</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001719092251732945</v>
+        <v>0.001958618871867657</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.005974119529128075</v>
+        <v>-0.006983042694628239</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.1453772485256195</v>
+        <v>-0.1430095881223679</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.03552986308932304</v>
+        <v>-0.03632635623216629</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.08531525731086731</v>
+        <v>-0.08191321790218353</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.04295216500759125</v>
+        <v>-0.02990349195897579</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.0041289865039289</v>
+        <v>-0.01260121166706085</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.002775762462988496</v>
+        <v>-0.008425615727901459</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.1572641134262085</v>
+        <v>0.1661538034677505</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.02365487441420555</v>
+        <v>-0.01173284556716681</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.1600214242935181</v>
+        <v>0.172630175948143</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.05406774207949638</v>
+        <v>0.0663326308131218</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.04294304922223091</v>
+        <v>0.04232852905988693</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.02736527472734451</v>
+        <v>-0.0215296559035778</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.04577181860804558</v>
+        <v>0.06069524213671684</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.006839069537818432</v>
+        <v>-0.000790693738963455</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.0125814750790596</v>
+        <v>-0.007595082279294729</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.01133858598768711</v>
+        <v>-0.02056653052568436</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.1716890782117844</v>
+        <v>-0.1654029786586761</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.04827071353793144</v>
+        <v>0.04816927388310432</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.06654184311628342</v>
+        <v>0.06448136270046234</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.01641426235437393</v>
+        <v>-0.03148669376969337</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.125373899936676</v>
+        <v>-0.1070774793624878</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.04102866351604462</v>
+        <v>0.04325114563107491</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.003513464704155922</v>
+        <v>0.005599619820713997</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.004771027714014053</v>
+        <v>-0.0003629239508882165</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.09311044961214066</v>
+        <v>-0.08262607455253601</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.003881153417751193</v>
+        <v>0.00460773753002286</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.01680977270007133</v>
+        <v>0.01374253164976835</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.01388341560959816</v>
+        <v>-0.004645887296646833</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.1880077123641968</v>
+        <v>0.1763065308332443</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.01500171236693859</v>
+        <v>-0.0161940660327673</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.01756701618432999</v>
+        <v>0.01823227107524872</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
+++ b/static/Models/Regression/Equation/Fast Moving Consumer Goods.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02130080945789814</v>
+        <v>0.0216969009488821</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04935542866587639</v>
+        <v>-0.05604810267686844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001071873819455504</v>
+        <v>-0.001990086166188121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1271169483661652</v>
+        <v>0.1265770494937897</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01874314248561859</v>
+        <v>0.02682365104556084</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0103871738538146</v>
+        <v>-0.01222172938287258</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01026389095932245</v>
+        <v>-0.01968027465045452</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001721248612739146</v>
+        <v>0.004700041841715574</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.09819441288709641</v>
+        <v>-0.09198721498250961</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01641131937503815</v>
+        <v>-0.01665065437555313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001659260597079992</v>
+        <v>0.011359135620296</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0118428785353899</v>
+        <v>-0.01306339912116528</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.002141171135008335</v>
+        <v>-0.004750149324536324</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2673439383506775</v>
+        <v>0.2741022109985352</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07969748228788376</v>
+        <v>0.08193187415599823</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1171651482582092</v>
+        <v>-0.1167871877551079</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.008287091739475727</v>
+        <v>-0.00290187681093812</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06737057864665985</v>
+        <v>0.0769229531288147</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0651085302233696</v>
+        <v>-0.06584777683019638</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.07709623873233795</v>
+        <v>-0.07858961820602417</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02468464337289333</v>
+        <v>0.02426315471529961</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1371505409479141</v>
+        <v>-0.1345066577196121</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.01739564351737499</v>
+        <v>-0.01335260272026062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1017507910728455</v>
+        <v>0.09344632178544998</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.08923302590847015</v>
+        <v>-0.09084558486938477</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02664003148674965</v>
+        <v>0.03107095323503017</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.02579339593648911</v>
+        <v>-0.03887980058789253</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0556083470582962</v>
+        <v>-0.05254858732223511</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.03887926042079926</v>
+        <v>-0.03902683034539223</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.08659044653177261</v>
+        <v>0.08869471400976181</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03566142916679382</v>
+        <v>0.03002987615764141</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1532224118709564</v>
+        <v>0.1603458821773529</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1916318833827972</v>
+        <v>0.2001582235097885</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.08345627784729004</v>
+        <v>0.07993179559707642</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.002091996371746063</v>
+        <v>0.009255994111299515</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.05195256695151329</v>
+        <v>-0.04728976264595985</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.02257596887648106</v>
+        <v>-0.01106168795377016</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.05162477120757103</v>
+        <v>-0.06568779796361923</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1436682194471359</v>
+        <v>0.1431527733802795</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.06819270551204681</v>
+        <v>0.08031943440437317</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.01050239708274603</v>
+        <v>-0.01487252023071051</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.003259177319705486</v>
+        <v>-0.004837407730519772</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.01294341403990984</v>
+        <v>-0.01813522912561893</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.03744756802916527</v>
+        <v>0.03241635113954544</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.08753101527690887</v>
+        <v>0.09648334234952927</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0599951446056366</v>
+        <v>0.05265296623110771</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.03898067027330399</v>
+        <v>-0.04466385766863823</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.03619558364152908</v>
+        <v>-0.03948813304305077</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02377110719680786</v>
+        <v>0.02783027105033398</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.08081091940402985</v>
+        <v>-0.08005941659212112</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.04610714316368103</v>
+        <v>-0.05339027941226959</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.05959479138255119</v>
+        <v>0.07049817591905594</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.07933887839317322</v>
+        <v>-0.08733148872852325</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.005459141917526722</v>
+        <v>0.002431636210530996</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.06385558098554611</v>
+        <v>0.06415250152349472</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.006847490556538105</v>
+        <v>-0.0003195111930835992</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01031682267785072</v>
+        <v>0.001140613225288689</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.09912643581628799</v>
+        <v>-0.09812743961811066</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.000731233973056078</v>
+        <v>-0.00638323649764061</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.05496317148208618</v>
+        <v>0.05439495667815208</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.1611063778400421</v>
+        <v>-0.1746311783790588</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.001094224746339023</v>
+        <v>-0.0008228176739066839</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.1095708236098289</v>
+        <v>-0.1093593239784241</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.03659229725599289</v>
+        <v>-0.03734975308179855</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.044148039072752</v>
+        <v>-0.03420300409197807</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.1886603683233261</v>
+        <v>0.1833867728710175</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.1395489573478699</v>
+        <v>-0.1325756013393402</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01342589966952801</v>
+        <v>0.01753639057278633</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.03053990006446838</v>
+        <v>-0.0185887161642313</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0247248038649559</v>
+        <v>0.02026060037314892</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.03913616761565208</v>
+        <v>0.04315532371401787</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.02865945175290108</v>
+        <v>0.02770288847386837</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.06677969545125961</v>
+        <v>-0.06609071046113968</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.004037606064230204</v>
+        <v>-0.003825828433036804</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.007887847721576691</v>
+        <v>0.01434745732694864</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.02244616113603115</v>
+        <v>-0.0201251432299614</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.01571036875247955</v>
+        <v>-0.008717570453882217</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.009043971076607704</v>
+        <v>0.001900722621940076</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.02648813650012016</v>
+        <v>-0.02268796600401402</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01473693549633026</v>
+        <v>0.01729938946664333</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01968451216816902</v>
+        <v>-0.01383169181644917</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.02805661410093307</v>
+        <v>0.01996373571455479</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.1190165877342224</v>
+        <v>0.1214344874024391</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1309729963541031</v>
+        <v>0.1310287564992905</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.005802014376968145</v>
+        <v>0.002855527447536588</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.07300666719675064</v>
+        <v>-0.07312171906232834</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.3306468725204468</v>
+        <v>0.3260399401187897</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00413342984393239</v>
+        <v>-8.638490544399247e-05</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.007198118139058352</v>
+        <v>-0.001980951754376292</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.008672230876982212</v>
+        <v>-0.002953124931082129</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.02125248871743679</v>
+        <v>-0.01409444492310286</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.007448429707437754</v>
+        <v>-0.008805697783827782</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.1176927089691162</v>
+        <v>-0.1124348267912865</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.03134522214531898</v>
+        <v>-0.02035500109195709</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.02657084725797176</v>
+        <v>-0.03135573491454124</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.01433257665485144</v>
+        <v>-0.01321042142808437</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.01365555357187986</v>
+        <v>-0.01099056843668222</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.005187845788896084</v>
+        <v>-0.001023949589580297</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01929999142885208</v>
+        <v>0.01190482266247272</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.06614027172327042</v>
+        <v>-0.06828054785728455</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.008151729591190815</v>
+        <v>-0.008380542509257793</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.01610114797949791</v>
+        <v>-0.0220117773860693</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.006458321120589972</v>
+        <v>-0.0001552488101879135</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.1583187729120255</v>
+        <v>-0.1595758199691772</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.114854171872139</v>
+        <v>-0.1254406273365021</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.001110048848204315</v>
+        <v>-0.002787708304822445</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2821880877017975</v>
+        <v>0.2907194793224335</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.008625436574220657</v>
+        <v>-0.008095876313745975</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.06968304514884949</v>
+        <v>-0.06685491651296616</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01491313986480236</v>
+        <v>0.02050487697124481</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.03298740833997726</v>
+        <v>-0.03453132882714272</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01348061207681894</v>
+        <v>-0.008083791472017765</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.1341350674629211</v>
+        <v>0.1264608949422836</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.07099737226963043</v>
+        <v>-0.06835249811410904</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.1848041564226151</v>
+        <v>-0.1828435510396957</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.005394837819039822</v>
+        <v>0.01258489489555359</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.1808024048805237</v>
+        <v>0.1814808398485184</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01567181013524532</v>
+        <v>-0.01408934686332941</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.04668759927153587</v>
+        <v>-0.04571318626403809</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.02215847931802273</v>
+        <v>-0.0222019013017416</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.004818839952349663</v>
+        <v>-0.0113691333681345</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.03453436121344566</v>
+        <v>0.03805708512663841</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.1041930094361305</v>
+        <v>0.1133445724844933</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.1150795295834541</v>
+        <v>-0.1138910055160522</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.009354366920888424</v>
+        <v>0.00462782196700573</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.00944897998124361</v>
+        <v>-0.006735998205840588</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.1295012235641479</v>
+        <v>-0.128917783498764</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.2794100344181061</v>
+        <v>0.274756133556366</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01171740889549255</v>
+        <v>0.008387589827179909</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.006010226439684629</v>
+        <v>-0.009263687767088413</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.08608881384134293</v>
+        <v>0.08683524280786514</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.007380664814263582</v>
+        <v>-0.001284138998016715</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.1319580376148224</v>
+        <v>-0.1322033405303955</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.02340325526893139</v>
+        <v>0.02395215258002281</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.03921283781528473</v>
+        <v>0.03605558350682259</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.08589621633291245</v>
+        <v>-0.09712284803390503</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.09058542549610138</v>
+        <v>0.08901841938495636</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.06143175810575485</v>
+        <v>0.06845147907733917</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.02036199159920216</v>
+        <v>-0.02325855009257793</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.01759452372789383</v>
+        <v>-0.01245627738535404</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.01609478332102299</v>
+        <v>-0.01653849147260189</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.08683432638645172</v>
+        <v>0.08596766740083694</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.08989398181438446</v>
+        <v>-0.08346584439277649</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0334281399846077</v>
+        <v>-0.03390521928668022</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.01527482084929943</v>
+        <v>0.01748595386743546</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.1163044795393944</v>
+        <v>-0.1159901469945908</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.01253784261643887</v>
+        <v>-0.01613516174256802</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.1462804824113846</v>
+        <v>0.1481455713510513</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02482018247246742</v>
+        <v>0.02882375940680504</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.09004998952150345</v>
+        <v>-0.07947780191898346</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.1252468079328537</v>
+        <v>-0.1195470318198204</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.01285830140113831</v>
+        <v>-0.01134315691888332</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.1038505882024765</v>
+        <v>0.1032509133219719</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.01205482985824347</v>
+        <v>-0.0116912592202425</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.06164716556668282</v>
+        <v>0.05072840675711632</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.006580783054232597</v>
+        <v>-0.007162235677242279</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01231870055198669</v>
+        <v>-0.01141112763434649</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.03651970624923706</v>
+        <v>0.03628024086356163</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.01156731322407722</v>
+        <v>0.01667498238384724</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.1203156486153603</v>
+        <v>-0.1156008765101433</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.1990515738725662</v>
+        <v>0.1982531398534775</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.04342913255095482</v>
+        <v>-0.03069346398115158</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.001393656828440726</v>
+        <v>0.001981129171326756</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.1532569378614426</v>
+        <v>-0.1436091214418411</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.08513882756233215</v>
+        <v>0.08392444998025894</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.1198240220546722</v>
+        <v>-0.125927209854126</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.2297999560832977</v>
+        <v>-0.2340027093887329</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.1589519530534744</v>
+        <v>0.1508560329675674</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.02207259275019169</v>
+        <v>-0.02077899500727654</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.002316511236131191</v>
+        <v>-0.004350286908447742</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.002811259357258677</v>
+        <v>0.001527256332337856</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.004533329047262669</v>
+        <v>-0.005906266160309315</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01334838848561049</v>
+        <v>-0.01237019244581461</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001958618871867657</v>
+        <v>0.005572968628257513</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.006983042694628239</v>
+        <v>-0.007319540716707706</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.1430095881223679</v>
+        <v>-0.1438332945108414</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.03632635623216629</v>
+        <v>-0.03923271596431732</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.08191321790218353</v>
+        <v>-0.08259937912225723</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.02990349195897579</v>
+        <v>-0.02640885859727859</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.01260121166706085</v>
+        <v>-0.01138422917574644</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.008425615727901459</v>
+        <v>-0.002320345491170883</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.1661538034677505</v>
+        <v>0.1683034300804138</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.01173284556716681</v>
+        <v>-0.01327035669237375</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.172630175948143</v>
+        <v>0.1792543977499008</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0663326308131218</v>
+        <v>0.07501707971096039</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.04232852905988693</v>
+        <v>0.04136359691619873</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.0215296559035778</v>
+        <v>-0.02426902018487453</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.06069524213671684</v>
+        <v>0.06227431073784828</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.000790693738963455</v>
+        <v>-0.00266002886928618</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.007595082279294729</v>
+        <v>-0.009092213585972786</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.02056653052568436</v>
+        <v>-0.01494994387030602</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.1654029786586761</v>
+        <v>-0.1557887345552444</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.04816927388310432</v>
+        <v>0.04228105023503304</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.06448136270046234</v>
+        <v>0.0645216628909111</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.03148669376969337</v>
+        <v>-0.03983170911669731</v>
       </c>
       <c r="GO2" t="n">
-        <v>-0.1070774793624878</v>
+        <v>-0.09759130328893661</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.04325114563107491</v>
+        <v>0.04462921619415283</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.005599619820713997</v>
+        <v>-0.003112097037956119</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.0003629239508882165</v>
+        <v>0.002524846699088812</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.08262607455253601</v>
+        <v>-0.08525906503200531</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.00460773753002286</v>
+        <v>0.0004894638550467789</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.01374253164976835</v>
+        <v>0.01127731706947088</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.004645887296646833</v>
+        <v>-0.001000679563730955</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.1763065308332443</v>
+        <v>0.1812773644924164</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.0161940660327673</v>
+        <v>-0.0173155888915062</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.01823227107524872</v>
+        <v>0.01822881959378719</v>
       </c>
     </row>
   </sheetData>
